--- a/Uploads/InvoiceDemo/InvoiceDemo.xlsx
+++ b/Uploads/InvoiceDemo/InvoiceDemo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>COMMERCIAL INVOICE</t>
   </si>
@@ -126,19 +126,6 @@
     <t>CONTACT NAME（联系人）：</t>
   </si>
   <si>
-    <r>
-      <t>TELEPHONE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（电话）：</t>
-    </r>
-  </si>
-  <si>
     <t>TELEPHONE（电话）：</t>
   </si>
   <si>
@@ -319,9 +306,6 @@
     <t>日期：</t>
   </si>
   <si>
-    <t>2022.3.8</t>
-  </si>
-  <si>
     <t>——————————————</t>
   </si>
   <si>
@@ -395,6 +379,20 @@
         <charset val="134"/>
       </rPr>
       <t>（联系人）：</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TELEPHONE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（电话）：</t>
     </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -404,7 +402,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -708,7 +706,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +837,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -879,47 +921,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1202,8 +1204,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.5"/>
@@ -1219,28 +1221,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
@@ -1248,25 +1250,25 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+        <v>31</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -1274,12 +1276,12 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
@@ -1287,27 +1289,27 @@
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="58" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -1327,13 +1329,13 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
@@ -1353,157 +1355,157 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="75" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1">
-      <c r="A12" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="39" t="s">
+      <c r="A12" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1">
-      <c r="A13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="42" t="s">
+      <c r="A13" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="39" t="s">
+      <c r="A14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39" t="s">
+      <c r="A16" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="39" t="s">
+      <c r="A17" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="46.5" customHeight="1">
       <c r="A20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="F20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="G20" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1581,7 +1583,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="29">
         <f>G22+G21</f>
@@ -1592,14 +1594,14 @@
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="3"/>
@@ -1607,24 +1609,22 @@
     </row>
     <row r="29" spans="1:9" ht="13" customHeight="1">
       <c r="A29" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="31"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G29" s="59"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="38.15" customHeight="1">
       <c r="A30" s="35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
@@ -1644,6 +1644,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A7:C7"/>
@@ -1656,21 +1671,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D7:G7"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.23999999999999996" right="0" top="0.11999999999999998" bottom="0" header="0.08" footer="0"/>
